--- a/Diagrama Gantt.xlsx
+++ b/Diagrama Gantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C3C42B6-0831-4646-AD1E-D8488A201704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322AA6E8-FA9E-47B9-B70F-48BD707948E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13905" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +154,7 @@
       <name val="Arial Black"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +266,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9CFFE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF375623"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,15 +316,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -329,6 +344,10 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,15 +356,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF2BED"/>
+      <color rgb="FFF4B084"/>
+      <color rgb="FF00B0F0"/>
+      <color rgb="FF375623"/>
+      <color rgb="FFC6E0B4"/>
       <color rgb="FFFFE699"/>
       <color rgb="FF9CFFE9"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFF8CBAD"/>
-      <color rgb="FFF4B084"/>
       <color rgb="FFE79A97"/>
-      <color rgb="FFFF2BED"/>
-      <color rgb="FFB4C6E7"/>
-      <color rgb="FFFF9EA0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -360,7 +380,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -658,13 +678,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274FABB-DF5C-4F9E-B98F-F8DC866DADF5}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="22.5">
+    <row r="1" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -718,188 +738,186 @@
       </c>
       <c r="AA1" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="22.5">
+    <row r="3" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:27" ht="22.5">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
-      <c r="H4" s="42"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-    </row>
-    <row r="5" spans="1:27" ht="22.5">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-    </row>
-    <row r="6" spans="1:27" ht="22.5">
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+    </row>
+    <row r="6" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" ht="22.5">
-      <c r="B7" s="16" t="s">
+      <c r="E6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+    </row>
+    <row r="7" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="I7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-    </row>
-    <row r="8" spans="1:27" ht="22.5">
-      <c r="B8" s="31" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="22"/>
-    </row>
-    <row r="9" spans="1:27" ht="22.5">
-      <c r="B9" s="28" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+    </row>
+    <row r="9" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-    </row>
-    <row r="10" spans="1:27" ht="22.5">
-      <c r="B10" s="33" t="s">
+      <c r="D9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="R9" s="26"/>
+    </row>
+    <row r="10" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-    </row>
-    <row r="11" spans="1:27" ht="22.5">
-      <c r="B11" s="37" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+    </row>
+    <row r="11" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="39"/>
-    </row>
-    <row r="12" spans="1:27" ht="22.5">
-      <c r="B12" s="40" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="J11" s="45"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="36"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+    </row>
+    <row r="12" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="O12" s="41"/>
-    </row>
-    <row r="13" spans="1:27" ht="22.5">
-      <c r="B13" s="26" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="Q12" s="38"/>
+    </row>
+    <row r="13" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-    </row>
-    <row r="14" spans="1:27" ht="22.5">
-      <c r="B14" s="24" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+    </row>
+    <row r="14" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="2"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-    </row>
-    <row r="15" spans="1:27" ht="22.5">
-      <c r="B15" s="43" t="s">
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+    </row>
+    <row r="15" spans="1:27" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="L15" s="22"/>
-      <c r="O15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="O15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
